--- a/Datos/Database by set/Set with text box/Xlsx sets/Khans of Tarkir Tokens (TKTK).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Khans of Tarkir Tokens (TKTK).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,315 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>('Bear', ['Token Creature — Bear', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Bear</t>
+          <t>('Bird', ['Token Creature — Bird', 'Flying', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>('Morph', ['Creature', '(You can cover a face-down creature with this reminder card.', 'A card with morph can be turned face up any time for its morph cost.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Bird</t>
+          <t>('Sarkhan, the Dragonspeaker Emblem', ['Emblem — Sarkhan', 'At the beginning of your draw step, draw two additional cards.', 'At the beginning of your end step, discard your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Snake', ['Token Creature — Snake', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>('Sorin, Solemn Visitor Emblem', ['Emblem — Sorin', 'At the beginning of each opponent’s upkeep, that player sacrifices a creature.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goblin</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Goblin</t>
+          <t>('Spirit Warrior', ['Token Creature — Spirit Warrior', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Vampire', ['Token Creature — Vampire', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Morph</t>
+          <t>('Warrior', ['Token Creature — Warrior', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>(You can cover a face-down creature with this reminder card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A card with morph can be turned face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sarkhan, the Dragonspeaker Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Emblem — Sarkhan</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>At the beginning of your draw step, draw two additional cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, discard your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sorin, Solemn Visitor Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Emblem — Sorin</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>At the beginning of each opponent’s upkeep, that player sacrifices a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Spirit Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Creature — Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Token Creature — Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
